--- a/model/datasets/Dengue_PH_Fct.xlsx
+++ b/model/datasets/Dengue_PH_Fct.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire\Documents\GitHub\nasa_hack\model\datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cirrolytix\Documents\GitHub\nasa_hack\nasa_hack\model\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F14A8B3-5541-48C8-B3E0-334B365A0220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -72,7 +71,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,6 +150,1215 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTD_Cases</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>10435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5670</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7684</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23058</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35580</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32650</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18757</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9157</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9633</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11433.125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7087.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10894</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11112</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39941</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>31609</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34164</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15842</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28265</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11391</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9585</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5457</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7327</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4473</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5537</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14828</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17793</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20896</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20367</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14173</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20397</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8758</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6841</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10443</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6215</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7321</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19203</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>58390</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47407.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35481.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27369</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>29871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-473B-4F4B-90D3-A3A6EFEE0A9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MTD_Cases_Fct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="4">
+                  <c:v>5746.8046144198761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4156.9466617947128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11469.20039868353</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43111.975766871183</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31199.857410226941</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75080.835964767466</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18837.395226707999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6628.8314577867013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5956.7767304604004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10507.33407203857</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8849.4649958108421</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10454.38317509326</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16817.958091426121</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8068.4148097690531</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22320.23039312485</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26709.123325119159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21116.191710598949</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16344.83789704222</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>34639.04766718945</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24077.709670861132</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16570.722028889551</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7437.2392123184081</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10598.019759519409</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6644.9788301297149</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3256.2137677355622</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5681.6286839179011</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11434.25430502004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19761.991695792571</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20432.19454977335</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>19971.255927487429</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21371.60682832684</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14505.275172812941</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20535.550276972019</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-98.858150077368492</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11086.230182195741</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3674.1711709205729</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6703.7101559517268</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18007.3192799422</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11398.804386299649</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>39048.73698640248</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>68301.111189967065</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40894.20430426862</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47313.400398996288</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>37547.60282097647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-473B-4F4B-90D3-A3A6EFEE0A9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="452561328"/>
+        <c:axId val="452559664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="452561328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452559664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="452559664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="452561328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -227,23 +1435,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -279,23 +1470,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -471,11 +1645,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +1668,7 @@
     <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -535,7 +1709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42035</v>
       </c>
@@ -570,7 +1744,7 @@
         <v>2.7791087685673219E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42063</v>
       </c>
@@ -604,8 +1778,12 @@
       <c r="K3">
         <v>2.360160490913382E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <f>CORREL(M6:M49,B6:B49)</f>
+        <v>0.82192805436958538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42094</v>
       </c>
@@ -639,8 +1817,12 @@
       <c r="K4">
         <v>2.6545316647705731E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <f>RSQ(M6:M49,B6:B49)</f>
+        <v>0.67556572655977154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42124</v>
       </c>
@@ -675,7 +1857,7 @@
         <v>3.880070546737213E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42155</v>
       </c>
@@ -716,7 +1898,7 @@
         <v>5746.8046144198761</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42185</v>
       </c>
@@ -757,7 +1939,7 @@
         <v>4156.9466617947128</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42216</v>
       </c>
@@ -798,7 +1980,7 @@
         <v>11469.20039868353</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42247</v>
       </c>
@@ -839,7 +2021,7 @@
         <v>43111.975766871183</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42277</v>
       </c>
@@ -880,7 +2062,7 @@
         <v>31199.857410226941</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42308</v>
       </c>
@@ -921,7 +2103,7 @@
         <v>75080.835964767466</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42338</v>
       </c>
@@ -962,7 +2144,7 @@
         <v>18837.395226707999</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42369</v>
       </c>
@@ -1003,7 +2185,7 @@
         <v>-6628.8314577867013</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42400</v>
       </c>
@@ -1044,7 +2226,7 @@
         <v>5956.7767304604004</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42429</v>
       </c>
@@ -1085,7 +2267,7 @@
         <v>10507.33407203857</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42460</v>
       </c>
@@ -2482,5 +3664,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/model/datasets/Dengue_PH_Fct.xlsx
+++ b/model/datasets/Dengue_PH_Fct.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1648,9 +1649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12:P12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3666,4 +3665,16 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>